--- a/Assets/ExcelFiles/对话表格.xlsx
+++ b/Assets/ExcelFiles/对话表格.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qtlpr\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\UnityProjects\UnityUtility\Assets\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A64C920-7460-413C-8E96-A2537CC47A96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9161945B-E722-41E3-BB13-A7D91D7DD594}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="747" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="252" windowWidth="30936" windowHeight="17136" tabRatio="747" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="序章" sheetId="13" r:id="rId1"/>
@@ -575,8 +575,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -912,9 +912,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3290C3D2-C3E7-4BB3-BBF8-4D3EC648C5BA}">
   <dimension ref="A1:H73"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>

--- a/Assets/ExcelFiles/对话表格.xlsx
+++ b/Assets/ExcelFiles/对话表格.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\UnityProjects\UnityUtility\Assets\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5B4EA2A-9A11-4B7C-ABD0-8DF7B4951897}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2735331C-4569-4254-ABA9-E33ACD4F25E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17496" tabRatio="747" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="252" windowWidth="30936" windowHeight="17136" tabRatio="747" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="序章" sheetId="20" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="64">
   <si>
     <t>ID</t>
   </si>
@@ -302,6 +302,10 @@
   </si>
   <si>
     <t>我的任务目标是……救回失踪的人，并除掉作乱的怨灵。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Single</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -382,7 +386,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -404,9 +408,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -686,8 +687,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6E3E607-539A-46AC-8360-9C87050174AA}">
   <dimension ref="A1:H75"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G5" sqref="F5:G5"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -795,13 +796,13 @@
       <c r="A5" s="4">
         <v>1</v>
       </c>
-      <c r="B5" s="4">
-        <v>1</v>
+      <c r="B5" s="4" t="s">
+        <v>63</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="4">
         <v>3</v>
       </c>
       <c r="E5" s="4" t="s">
@@ -819,13 +820,13 @@
       <c r="A6" s="4">
         <v>2</v>
       </c>
-      <c r="B6" s="4">
-        <v>1</v>
+      <c r="B6" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="4">
         <v>3</v>
       </c>
       <c r="E6" s="4" t="s">
@@ -843,13 +844,13 @@
       <c r="A7" s="4">
         <v>3</v>
       </c>
-      <c r="B7" s="4">
-        <v>1</v>
+      <c r="B7" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="4">
         <v>3</v>
       </c>
       <c r="E7" s="4" t="s">
@@ -867,13 +868,13 @@
       <c r="A8" s="4">
         <v>4</v>
       </c>
-      <c r="B8" s="4">
-        <v>1</v>
+      <c r="B8" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="4">
         <v>3</v>
       </c>
       <c r="E8" s="4" t="s">
@@ -891,13 +892,13 @@
       <c r="A9" s="4">
         <v>5</v>
       </c>
-      <c r="B9" s="4">
-        <v>1</v>
+      <c r="B9" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="4">
         <v>2</v>
       </c>
       <c r="E9" s="4" t="s">
@@ -915,13 +916,13 @@
       <c r="A10" s="4">
         <v>6</v>
       </c>
-      <c r="B10" s="4">
-        <v>1</v>
+      <c r="B10" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="4">
         <v>2</v>
       </c>
       <c r="E10" s="4" t="s">
@@ -939,13 +940,13 @@
       <c r="A11" s="4">
         <v>7</v>
       </c>
-      <c r="B11" s="4">
-        <v>1</v>
+      <c r="B11" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="4">
         <v>2</v>
       </c>
       <c r="E11" s="4" t="s">
@@ -962,13 +963,13 @@
       <c r="A12" s="4">
         <v>8</v>
       </c>
-      <c r="B12" s="4">
-        <v>1</v>
+      <c r="B12" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12" s="4">
         <v>2</v>
       </c>
       <c r="E12" s="4" t="s">
@@ -985,13 +986,13 @@
       <c r="A13" s="4">
         <v>9</v>
       </c>
-      <c r="B13" s="4">
-        <v>1</v>
+      <c r="B13" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13" s="4">
         <v>2</v>
       </c>
       <c r="E13" s="4" t="s">
@@ -1008,13 +1009,13 @@
       <c r="A14" s="4">
         <v>10</v>
       </c>
-      <c r="B14" s="4">
-        <v>1</v>
+      <c r="B14" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D14" s="4">
         <v>2</v>
       </c>
       <c r="E14" s="4" t="s">
@@ -1031,13 +1032,13 @@
       <c r="A15" s="4">
         <v>11</v>
       </c>
-      <c r="B15" s="4">
-        <v>1</v>
+      <c r="B15" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="D15" s="9">
+      <c r="D15" s="4">
         <v>2</v>
       </c>
       <c r="E15" s="4" t="s">
@@ -1323,6 +1324,7 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1330,7 +1332,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3290C3D2-C3E7-4BB3-BBF8-4D3EC648C5BA}">
   <dimension ref="A1:H75"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
